--- a/Evaluation/bodyweight_vs_weighted.xlsx
+++ b/Evaluation/bodyweight_vs_weighted.xlsx
@@ -8,24 +8,46 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\redma\Documents\GitHub\ExerciseClassification\Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2845DCA1-C384-40F7-8C1C-94206EE26B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1CAA40-8C66-4828-82D1-05870D6E86E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Mean accuracies" sheetId="1" r:id="rId1"/>
+    <sheet name="T-test comparison" sheetId="14" r:id="rId2"/>
+    <sheet name="AdaBoost" sheetId="2" r:id="rId3"/>
+    <sheet name="Boss Ensemble" sheetId="3" r:id="rId4"/>
+    <sheet name="Decision Tree" sheetId="4" r:id="rId5"/>
+    <sheet name="kNN ED" sheetId="6" r:id="rId6"/>
+    <sheet name="kNN DTW" sheetId="5" r:id="rId7"/>
+    <sheet name="MLP" sheetId="7" r:id="rId8"/>
+    <sheet name="Naive Bayes" sheetId="8" r:id="rId9"/>
+    <sheet name="Random Forest" sheetId="9" r:id="rId10"/>
+    <sheet name="Rocket" sheetId="10" r:id="rId11"/>
+    <sheet name="TSF" sheetId="11" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="59">
   <si>
     <t>Mean Accuracy</t>
   </si>
@@ -60,29 +82,159 @@
     <t>Time Series Forest</t>
   </si>
   <si>
-    <t>Bodyweight accel xyz</t>
-  </si>
-  <si>
-    <t>Bodyweight gyro xyz</t>
-  </si>
-  <si>
     <t>Bodyweight</t>
   </si>
   <si>
-    <t>Weighted accel xyz</t>
-  </si>
-  <si>
-    <t>Weighted gyro xyz</t>
-  </si>
-  <si>
     <t>Weighted</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>Mean Difference</t>
+  </si>
+  <si>
+    <t>Mean StdDev</t>
+  </si>
+  <si>
+    <t>t-Test: Paired Two Sample for Means</t>
+  </si>
+  <si>
+    <t>T-value</t>
+  </si>
+  <si>
+    <t>Critical Region</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Pearson Correlation</t>
+  </si>
+  <si>
+    <t>Hypothesized Mean Difference</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) one-tail</t>
+  </si>
+  <si>
+    <t>t Critical one-tail</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) two-tail</t>
+  </si>
+  <si>
+    <t>t Critical two-tail</t>
+  </si>
+  <si>
+    <t>H0: there is no difference in mean accuracy between Rocket and AdaBoost on gym movements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Based off the evidence of this test we can reject the null hypothesis </t>
+  </si>
+  <si>
+    <t>Mean  Difference</t>
+  </si>
+  <si>
+    <t>Mean Standard Deviation</t>
+  </si>
+  <si>
+    <t>Criticial Difference</t>
+  </si>
+  <si>
+    <t>Boss Enemble</t>
+  </si>
+  <si>
+    <t>k-NN ED</t>
+  </si>
+  <si>
+    <t>k-NN DTW</t>
+  </si>
+  <si>
+    <t>MLP</t>
+  </si>
+  <si>
+    <t>H0: there is no difference in mean accuracy between Bodyweight and weighted exercises on Adaboost</t>
+  </si>
+  <si>
+    <t>H0: there is no difference in mean accuracy between Bodyweight and weighted exercises on Boss</t>
+  </si>
+  <si>
+    <t>H0: there is no difference in mean accuracy between Bodyweight and weighted exercises on Decision Trees</t>
+  </si>
+  <si>
+    <t>H0: there is no difference in mean accuracy between Bodyweight and weighted exercises on kNN ED</t>
+  </si>
+  <si>
+    <t>H0: there is no difference in mean accuracy between Bodyweight and weighted exercises on kNN DTW</t>
+  </si>
+  <si>
+    <t>H0: there is no difference in mean accuracy between Bodyweight and weighted exercises on MLP</t>
+  </si>
+  <si>
+    <t>H0: there is no difference in mean accuracy between Bodyweight and weighted exercises on Random Forest</t>
+  </si>
+  <si>
+    <t>H0: there is no difference in mean accuracy between Bodyweight and weighted exercises on Rocket</t>
+  </si>
+  <si>
+    <t>H0: there is no difference in mean accuracy between Bodyweight and weighted exercises on TSF</t>
+  </si>
+  <si>
+    <t>H1: there is a difference in mean accuracy between Bodyweight and weighted exercises on Adaboost</t>
+  </si>
+  <si>
+    <t>H1: there is a difference in mean accuracy between Bodyweight and weighted exercises on Boss</t>
+  </si>
+  <si>
+    <t>H1: there is a difference in mean accuracy between Bodyweight and weighted exercises on Decision Trees</t>
+  </si>
+  <si>
+    <t>H1: there is a difference in mean accuracy between Bodyweight and weighted exercises on kNN ED</t>
+  </si>
+  <si>
+    <t>H1: there is a difference in mean accuracy between Bodyweight and weighted exercises on kNN DTW</t>
+  </si>
+  <si>
+    <t>H1: there is a difference in mean accuracy between Bodyweight and weighted exercises on MLP</t>
+  </si>
+  <si>
+    <t>H1: there is a difference in mean accuracy between Bodyweight and weighted exercises on Naïve Bayes</t>
+  </si>
+  <si>
+    <t>H1: there is a difference in mean accuracy between Bodyweight and weighted exercises on Random Forest</t>
+  </si>
+  <si>
+    <t>H1: there is a difference in mean accuracy between Bodyweight and weighted exercises on Rocket</t>
+  </si>
+  <si>
+    <t>H1: there is a difference in mean accuracy between Bodyweight and weighted exercises on TSF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Based off the evidence of this test we cannot reject the null hypothesis </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,8 +250,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,8 +272,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -136,15 +302,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -482,13 +682,13 @@
         <v>11</v>
       </c>
       <c r="B2" s="3">
-        <v>0.76153846153846105</v>
+        <v>0.68076923076923002</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
       </c>
       <c r="D2" s="3">
-        <v>0.79780219780219697</v>
+        <v>0.88021978021977998</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
@@ -497,19 +697,19 @@
         <v>0.969780219780219</v>
       </c>
       <c r="G2" s="3">
-        <v>0.88736263736263699</v>
+        <v>0.89560439560439498</v>
       </c>
       <c r="H2" s="3">
-        <v>0.85714285714285698</v>
+        <v>0.79725274725274697</v>
       </c>
       <c r="I2" s="3">
-        <v>0.947252747252747</v>
+        <v>0.97032967032966999</v>
       </c>
       <c r="J2" s="3">
         <v>1</v>
       </c>
       <c r="K2" s="3">
-        <v>0.985164835164835</v>
+        <v>0.99285714285714199</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -517,177 +717,3550 @@
         <v>12</v>
       </c>
       <c r="B3" s="3">
-        <v>0.68351648351648298</v>
+        <v>0.49444444444444402</v>
       </c>
       <c r="C3" s="3">
-        <v>1</v>
+        <v>0.98888888888888804</v>
       </c>
       <c r="D3" s="3">
-        <v>0.86538461538461497</v>
+        <v>0.56111111111111101</v>
       </c>
       <c r="E3" s="3">
-        <v>1</v>
+        <v>0.97777777777777697</v>
       </c>
       <c r="F3" s="3">
-        <v>0.962087912087912</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="G3" s="3">
-        <v>0.81978021978021898</v>
+        <v>0.82777777777777695</v>
       </c>
       <c r="H3" s="3">
-        <v>0.85714285714285698</v>
+        <v>0.81666666666666599</v>
       </c>
       <c r="I3" s="3">
-        <v>0.91813186813186798</v>
+        <v>0.87777777777777699</v>
       </c>
       <c r="J3" s="3">
         <v>1</v>
       </c>
       <c r="K3" s="3">
-        <v>0.97087912087911998</v>
+        <v>0.938888888888888</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="3">
-        <v>0.68076923076923002</v>
+        <f>B2-B3</f>
+        <v>0.186324786324786</v>
       </c>
       <c r="C4" s="3">
-        <v>1</v>
+        <f t="shared" ref="C4:K4" si="0">C2-C3</f>
+        <v>1.111111111111196E-2</v>
       </c>
       <c r="D4" s="3">
-        <v>0.88021978021977998</v>
+        <f t="shared" si="0"/>
+        <v>0.31910866910866897</v>
       </c>
       <c r="E4" s="3">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2.2222222222223031E-2</v>
       </c>
       <c r="F4" s="3">
-        <v>0.969780219780219</v>
+        <f t="shared" si="0"/>
+        <v>0.13644688644688596</v>
       </c>
       <c r="G4" s="3">
-        <v>0.89560439560439498</v>
+        <f t="shared" si="0"/>
+        <v>6.782661782661803E-2</v>
       </c>
       <c r="H4" s="3">
-        <v>0.79725274725274697</v>
+        <f t="shared" si="0"/>
+        <v>-1.9413919413919012E-2</v>
       </c>
       <c r="I4" s="3">
-        <v>0.97032967032966999</v>
+        <f t="shared" si="0"/>
+        <v>9.2551892551893E-2</v>
       </c>
       <c r="J4" s="3">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="K4" s="3">
-        <v>0.99285714285714199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.483333333333333</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.88333333333333297</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.53888888888888897</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.95</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.80555555555555503</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.69444444444444398</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0.73333333333333295</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0.76666666666666605</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0.99444444444444402</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.47777777777777702</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.97777777777777697</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.594444444444444</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.98333333333333295</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.81666666666666599</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.688888888888888</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0.71111111111111103</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="J6" s="3">
-        <v>1</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.49444444444444402</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.98888888888888804</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.56111111111111101</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.97777777777777697</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0.82777777777777695</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0.81666666666666599</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0.87777777777777699</v>
-      </c>
-      <c r="J7" s="3">
-        <v>1</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0.938888888888888</v>
+        <f t="shared" si="0"/>
+        <v>5.3968253968253999E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1CCC669-D9BD-41DC-9B46-9E16246CFA50}">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="5">
+        <f>SUM(C2:C11)/10</f>
+        <v>0.10366300366300422</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.88888888888888795</v>
+      </c>
+      <c r="C2" s="6">
+        <f>A2-B2</f>
+        <v>0.11111111111111205</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5">
+        <f>STDEV(C2:C11)</f>
+        <v>8.8415065758273861E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>0.92857142857142805</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.88888888888888795</v>
+      </c>
+      <c r="C3" s="6">
+        <f t="shared" ref="C3:C11" si="0">A3-B3</f>
+        <v>3.9682539682540097E-2</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="6">
+        <f xml:space="preserve"> F1/(F2/SQRT(10))</f>
+        <v>3.7076396184073941</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="C4" s="6">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666696</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2.262</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>0.92857142857142805</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.88888888888888795</v>
+      </c>
+      <c r="C5" s="6">
+        <f t="shared" si="0"/>
+        <v>3.9682539682540097E-2</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" si="0"/>
+        <v>0.22222222222222299</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.88888888888888795</v>
+      </c>
+      <c r="C7" s="6">
+        <f t="shared" si="0"/>
+        <v>-4.2735042735041917E-2</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="I7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0.9703296703296701</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0.86666666666666603</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.94444444444444398</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" si="0"/>
+        <v>5.5555555555556024E-2</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="I8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="10">
+        <v>2.7854928953830191E-3</v>
+      </c>
+      <c r="K8" s="10">
+        <v>3.5665294924554177E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.94444444444444398</v>
+      </c>
+      <c r="C9" s="6">
+        <f t="shared" si="0"/>
+        <v>5.5555555555556024E-2</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="I9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="10">
+        <v>10</v>
+      </c>
+      <c r="K9" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>1</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="C10" s="6">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666696</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="I10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="10">
+        <v>-0.23243065777002922</v>
+      </c>
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>1</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="C11" s="6">
+        <f t="shared" si="0"/>
+        <v>0.22222222222222299</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="I11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="10">
+        <v>0</v>
+      </c>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="10">
+        <v>9</v>
+      </c>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="10">
+        <v>3.7076396184073941</v>
+      </c>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="10">
+        <v>2.4313556154185009E-3</v>
+      </c>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="10">
+        <v>1.8331129326562374</v>
+      </c>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="10">
+        <v>4.8627112308370019E-3</v>
+      </c>
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="I17" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="11">
+        <v>2.2621571627982053</v>
+      </c>
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A20:F20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3685BD3-72A5-497C-A05D-9BB33913535B}">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="5">
+        <f>SUM(C2:C11)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <f>A2-B2</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5">
+        <f>STDEV(C2:C11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <f t="shared" ref="C3:C11" si="0">A3-B3</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="6" t="e">
+        <f xml:space="preserve"> F1/(F2/SQRT(10))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2.262</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="I7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="10">
+        <v>1</v>
+      </c>
+      <c r="K7" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="I8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="10">
+        <v>0</v>
+      </c>
+      <c r="K8" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="I9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="10">
+        <v>10</v>
+      </c>
+      <c r="K9" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>1</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="I10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="10" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>1</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="I11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="10">
+        <v>0</v>
+      </c>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="10">
+        <v>9</v>
+      </c>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="10" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="10" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="10" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="10" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="I17" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="11" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A20:F20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6A95358-70D6-44DD-AF3D-6898A4F6E7D0}">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="5">
+        <f>SUM(C2:C11)/10</f>
+        <v>5.3968253968254207E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <f>A2-B2</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5">
+        <f>STDEV(C2:C11)</f>
+        <v>7.9962478253175095E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>0.92857142857142805</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.94444444444444398</v>
+      </c>
+      <c r="C3" s="6">
+        <f t="shared" ref="C3:C11" si="0">A3-B3</f>
+        <v>-1.5873015873015928E-2</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="6">
+        <f xml:space="preserve"> F1/(F2/SQRT(10))</f>
+        <v>2.1342835741253081</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.94444444444444398</v>
+      </c>
+      <c r="C4" s="6">
+        <f t="shared" si="0"/>
+        <v>5.5555555555556024E-2</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2.262</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="C7" s="6">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666696</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="I7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0.99285714285714266</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0.93888888888888855</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="I8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="10">
+        <v>5.1020408163266091E-4</v>
+      </c>
+      <c r="K8" s="10">
+        <v>5.7956104252400876E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.94444444444444398</v>
+      </c>
+      <c r="C9" s="6">
+        <f t="shared" si="0"/>
+        <v>5.5555555555556024E-2</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="I9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="10">
+        <v>10</v>
+      </c>
+      <c r="K9" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>1</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.94444444444444398</v>
+      </c>
+      <c r="C10" s="6">
+        <f t="shared" si="0"/>
+        <v>5.5555555555556024E-2</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="I10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="10">
+        <v>-2.5641025641024748E-2</v>
+      </c>
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>1</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="C11" s="6">
+        <f t="shared" si="0"/>
+        <v>0.22222222222222299</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="I11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="10">
+        <v>0</v>
+      </c>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="10">
+        <v>9</v>
+      </c>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="10">
+        <v>2.1342835741253081</v>
+      </c>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="10">
+        <v>3.0795548160243724E-2</v>
+      </c>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="10">
+        <v>1.8331129326562374</v>
+      </c>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="10">
+        <v>6.1591096320487447E-2</v>
+      </c>
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="I17" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="11">
+        <v>2.2621571627982053</v>
+      </c>
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A20:F20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2785446-9F20-468F-9CE0-E083AFDAD984}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="A1:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.1863247863247865</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.274418164465625</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2.1471272154228207</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2.262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1.1111111111111205E-2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2.3424278964210416E-2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2.262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.31910866910866942</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.14696577024796845</v>
+      </c>
+      <c r="D4" s="3">
+        <v>6.8662941975249376</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2.262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.13644688644688691</v>
+      </c>
+      <c r="C5" s="3">
+        <v>9.0503040646254335E-2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>4.7676071182739861</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2.262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2.222222222222241E-2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3.8844772154450383E-2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1.809068067466582</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2.262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="3">
+        <v>6.7826617826618002E-2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.11374312515272791</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1.8857104377068226</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2.262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>4.0476190476190818E-2</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.12238910653279916</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1.0458198163026571</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2.262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.10366300366300422</v>
+      </c>
+      <c r="C9" s="3">
+        <v>8.8415065758273861E-2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3.7076396184073941</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2.262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2.262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5.3968253968254207E-2</v>
+      </c>
+      <c r="C11" s="5">
+        <v>7.9962478253175095E-2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2.1342835741253081</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.262</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42BB10CF-DBE8-48E9-B9A9-7782FAF10AC2}">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="5">
+        <f>SUM(C2:C11)/10</f>
+        <v>0.1863247863247865</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="C2" s="6">
+        <f>A2-B2</f>
+        <v>5.5555555555556024E-2</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5">
+        <f>STDEV(C2:C11)</f>
+        <v>0.274418164465625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>0.28571428571428498</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.55555555555555503</v>
+      </c>
+      <c r="C3" s="6">
+        <f t="shared" ref="C3:C11" si="0">A3-B3</f>
+        <v>-0.26984126984127005</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="6">
+        <f xml:space="preserve"> F1/(F2/SQRT(10))</f>
+        <v>2.1471272154228207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>0.92857142857142805</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="C4" s="6">
+        <f t="shared" si="0"/>
+        <v>0.26190476190476208</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2.262</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.55555555555555503</v>
+      </c>
+      <c r="C5" s="6">
+        <f t="shared" si="0"/>
+        <v>0.30158730158730196</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>0.92857142857142805</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.38888888888888801</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" si="0"/>
+        <v>0.53968253968253999</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>0.46153846153846101</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="6">
+        <f t="shared" si="0"/>
+        <v>-3.8461538461538991E-2</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="I7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0.68076923076923035</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0.49444444444444402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" si="0"/>
+        <v>0.23504273504273498</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="I8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="10">
+        <v>7.3256383421218693E-2</v>
+      </c>
+      <c r="K8" s="10">
+        <v>9.9108367626884585E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>0.69230769230769196</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="C9" s="6">
+        <f t="shared" si="0"/>
+        <v>0.24786324786324798</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="I9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="10">
+        <v>10</v>
+      </c>
+      <c r="K9" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>0.30769230769230699</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.38888888888888801</v>
+      </c>
+      <c r="C10" s="6">
+        <f t="shared" si="0"/>
+        <v>-8.1196581196581019E-2</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="I10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="10">
+        <v>0.14588785361497275</v>
+      </c>
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>1</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.38888888888888801</v>
+      </c>
+      <c r="C11" s="6">
+        <f t="shared" si="0"/>
+        <v>0.61111111111111205</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="I11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="10">
+        <v>0</v>
+      </c>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="10">
+        <v>9</v>
+      </c>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="10">
+        <v>2.1471272154228207</v>
+      </c>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="10">
+        <v>3.0158957114220272E-2</v>
+      </c>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="10">
+        <v>1.8331129326562374</v>
+      </c>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="10">
+        <v>6.0317914228440545E-2</v>
+      </c>
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="I17" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="11">
+        <v>2.2621571627982053</v>
+      </c>
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A20:F20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52471C6D-A056-4EEA-9069-48F86BE04EF9}">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="5">
+        <f>SUM(C2:C11)/10</f>
+        <v>1.1111111111111205E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.94444444444444398</v>
+      </c>
+      <c r="C2" s="6">
+        <f>A2-B2</f>
+        <v>5.5555555555556024E-2</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5">
+        <f>STDEV(C2:C11)</f>
+        <v>2.3424278964210416E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <f t="shared" ref="C3:C11" si="0">A3-B3</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="6">
+        <f xml:space="preserve"> F1/(F2/SQRT(10))</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2.262</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.94444444444444398</v>
+      </c>
+      <c r="C7" s="6">
+        <f t="shared" si="0"/>
+        <v>5.5555555555556024E-2</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="I7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="10">
+        <v>1</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0.98888888888888871</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="I8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="10">
+        <v>0</v>
+      </c>
+      <c r="K8" s="10">
+        <v>5.4869684499315042E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="I9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="10">
+        <v>10</v>
+      </c>
+      <c r="K9" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>1</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="I10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="10" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>1</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="I11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="10">
+        <v>0</v>
+      </c>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="10">
+        <v>9</v>
+      </c>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="10">
+        <v>8.3925328028537471E-2</v>
+      </c>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="10">
+        <v>1.8331129326562374</v>
+      </c>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="10">
+        <v>0.16785065605707494</v>
+      </c>
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="I17" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="11">
+        <v>2.2621571627982053</v>
+      </c>
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A20:F20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0269D463-9D08-40AC-9693-AB30F0CBFF1D}">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="5">
+        <f>SUM(C2:C11)/10</f>
+        <v>0.31910866910866942</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="6">
+        <f>A2-B2</f>
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5">
+        <f>STDEV(C2:C11)</f>
+        <v>0.14696577024796845</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="6">
+        <f t="shared" ref="C3:C11" si="0">A3-B3</f>
+        <v>0.35714285714285698</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="6">
+        <f xml:space="preserve"> F1/(F2/SQRT(10))</f>
+        <v>6.8662941975249376</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.72222222222222199</v>
+      </c>
+      <c r="C4" s="6">
+        <f t="shared" si="0"/>
+        <v>0.134920634920635</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2.262</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.55555555555555503</v>
+      </c>
+      <c r="C5" s="6">
+        <f t="shared" si="0"/>
+        <v>0.30158730158730196</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.55555555555555503</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" si="0"/>
+        <v>0.44444444444444497</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>0.69230769230769196</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.55555555555555503</v>
+      </c>
+      <c r="C7" s="6">
+        <f t="shared" si="0"/>
+        <v>0.13675213675213693</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="I7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0.88021978021978009</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0.56111111111111067</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" si="0"/>
+        <v>0.10256410256410309</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="I8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="10">
+        <v>9.2702169625245769E-3</v>
+      </c>
+      <c r="K8" s="10">
+        <v>6.4814814814814587E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="C9" s="6">
+        <f t="shared" si="0"/>
+        <v>0.47863247863247904</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="I9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="10">
+        <v>10</v>
+      </c>
+      <c r="K9" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.55555555555555503</v>
+      </c>
+      <c r="C10" s="6">
+        <f t="shared" si="0"/>
+        <v>0.36752136752136799</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="I10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="10">
+        <v>-0.37717141556667805</v>
+      </c>
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.55555555555555503</v>
+      </c>
+      <c r="C11" s="6">
+        <f t="shared" si="0"/>
+        <v>0.36752136752136799</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="I11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="10">
+        <v>0</v>
+      </c>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="10">
+        <v>9</v>
+      </c>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="10">
+        <v>6.8662941975249403</v>
+      </c>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="10">
+        <v>3.6690875932306352E-5</v>
+      </c>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="10">
+        <v>1.8331129326562374</v>
+      </c>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="10">
+        <v>7.3381751864612705E-5</v>
+      </c>
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="I17" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="11">
+        <v>2.2621571627982053</v>
+      </c>
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A20:F20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF001A4-B64A-4257-B334-6D93BF10FF3C}">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="5">
+        <f>SUM(C2:C11)/10</f>
+        <v>0.13644688644688691</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="C2" s="6">
+        <f>A2-B2</f>
+        <v>0.22222222222222299</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5">
+        <f>STDEV(C2:C11)</f>
+        <v>9.0503040646254335E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.88888888888888795</v>
+      </c>
+      <c r="C3" s="6">
+        <f t="shared" ref="C3:C11" si="0">A3-B3</f>
+        <v>0.11111111111111205</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="6">
+        <f xml:space="preserve"> F1/(F2/SQRT(10))</f>
+        <v>4.7676071182739861</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="C4" s="6">
+        <f t="shared" si="0"/>
+        <v>0.22222222222222299</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2.262</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>0.92857142857142805</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.94444444444444398</v>
+      </c>
+      <c r="C5" s="6">
+        <f t="shared" si="0"/>
+        <v>-1.5873015873015928E-2</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666696</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="C7" s="6">
+        <f t="shared" si="0"/>
+        <v>6.8376068376069021E-2</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="I7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0.96978021978021967</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0.8333333333333327</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666696</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="I8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="10">
+        <v>2.8394987186196067E-3</v>
+      </c>
+      <c r="K8" s="10">
+        <v>5.4869684499314125E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.94444444444444398</v>
+      </c>
+      <c r="C9" s="6">
+        <f t="shared" si="0"/>
+        <v>5.5555555555556024E-2</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="I9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="10">
+        <v>10</v>
+      </c>
+      <c r="K9" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="C10" s="6">
+        <f t="shared" si="0"/>
+        <v>8.974358974358998E-2</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="I10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="10">
+        <v>1.7185276463054039E-2</v>
+      </c>
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>1</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.72222222222222199</v>
+      </c>
+      <c r="C11" s="6">
+        <f t="shared" si="0"/>
+        <v>0.27777777777777801</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="I11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="10">
+        <v>0</v>
+      </c>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="10">
+        <v>9</v>
+      </c>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="10">
+        <v>4.767607118273987</v>
+      </c>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="10">
+        <v>5.0938481135461683E-4</v>
+      </c>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="10">
+        <v>1.8331129326562374</v>
+      </c>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="10">
+        <v>1.0187696227092337E-3</v>
+      </c>
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="I17" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="11">
+        <v>2.2621571627982053</v>
+      </c>
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A20:F20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF3EC29D-1365-407B-AEF1-9D918CE79A96}">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="5">
+        <f>SUM(C2:C11)/10</f>
+        <v>2.222222222222241E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <f>A2-B2</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5">
+        <f>STDEV(C2:C11)</f>
+        <v>3.8844772154450383E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <f t="shared" ref="C3:C11" si="0">A3-B3</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="6">
+        <f xml:space="preserve"> F1/(F2/SQRT(10))</f>
+        <v>1.809068067466582</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.94444444444444398</v>
+      </c>
+      <c r="C4" s="6">
+        <f t="shared" si="0"/>
+        <v>5.5555555555556024E-2</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2.262</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.88888888888888795</v>
+      </c>
+      <c r="C7" s="6">
+        <f t="shared" si="0"/>
+        <v>0.11111111111111205</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="I7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="10">
+        <v>1</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0.97777777777777763</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="I8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="10">
+        <v>0</v>
+      </c>
+      <c r="K8" s="10">
+        <v>1.5089163237311642E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="I9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="10">
+        <v>10</v>
+      </c>
+      <c r="K9" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>1</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="I10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="10" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>1</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.94444444444444398</v>
+      </c>
+      <c r="C11" s="6">
+        <f t="shared" si="0"/>
+        <v>5.5555555555556024E-2</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="I11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="10">
+        <v>0</v>
+      </c>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="10">
+        <v>9</v>
+      </c>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="10">
+        <v>1.809068067466582</v>
+      </c>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="10">
+        <v>5.1944065531050833E-2</v>
+      </c>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="10">
+        <v>1.8331129326562374</v>
+      </c>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="10">
+        <v>0.10388813106210167</v>
+      </c>
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="I17" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="11">
+        <v>2.2621571627982053</v>
+      </c>
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A20:F20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5FEAEA-E1FD-43AA-9C73-69C2AA083AA2}">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="5">
+        <f>SUM(C2:C11)/10</f>
+        <v>6.7826617826618002E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>0.92857142857142805</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="C2" s="6">
+        <f>A2-B2</f>
+        <v>9.5238095238095011E-2</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5">
+        <f>STDEV(C2:C11)</f>
+        <v>0.11374312515272791</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.94444444444444398</v>
+      </c>
+      <c r="C3" s="6">
+        <f t="shared" ref="C3:C11" si="0">A3-B3</f>
+        <v>-8.7301587301586991E-2</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="6">
+        <f xml:space="preserve"> F1/(F2/SQRT(10))</f>
+        <v>1.8857104377068226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="C4" s="6">
+        <f t="shared" si="0"/>
+        <v>0.22222222222222299</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2.262</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>0.92857142857142805</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="C5" s="6">
+        <f t="shared" si="0"/>
+        <v>9.5238095238095011E-2</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" si="0"/>
+        <v>2.3809523809523947E-2</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>0.69230769230769196</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="C7" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.14102564102564108</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="I7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0.89560439560439542</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0.8277777777777775</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.72222222222222199</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" si="0"/>
+        <v>0.12393162393162405</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="I8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="10">
+        <v>8.023722309436607E-3</v>
+      </c>
+      <c r="K8" s="10">
+        <v>5.7956104252400486E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.94444444444444398</v>
+      </c>
+      <c r="C9" s="6">
+        <f t="shared" si="0"/>
+        <v>5.5555555555556024E-2</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="I9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="10">
+        <v>10</v>
+      </c>
+      <c r="K9" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.72222222222222199</v>
+      </c>
+      <c r="C10" s="6">
+        <f t="shared" si="0"/>
+        <v>0.20085470085470103</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="I10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="10">
+        <v>6.4657575013982768E-2</v>
+      </c>
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="C11" s="6">
+        <f t="shared" si="0"/>
+        <v>8.974358974358998E-2</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="I11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="10">
+        <v>0</v>
+      </c>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="10">
+        <v>9</v>
+      </c>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="10">
+        <v>1.885710437706823</v>
+      </c>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="10">
+        <v>4.5982063957064105E-2</v>
+      </c>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="10">
+        <v>1.8331129326562374</v>
+      </c>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="10">
+        <v>9.196412791412821E-2</v>
+      </c>
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="I17" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="11">
+        <v>2.2621571627982053</v>
+      </c>
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A20:F20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07979AF0-187D-43E1-BE29-CB36F8BBD994}">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="5">
+        <f>SUM(C2:C11)/10</f>
+        <v>4.0476190476190818E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>0.92857142857142805</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="C2" s="6">
+        <f>A2-B2</f>
+        <v>0.15079365079365104</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5">
+        <f>STDEV(C2:C11)</f>
+        <v>0.12238910653279916</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>0.78571428571428503</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="C3" s="6">
+        <f t="shared" ref="C3:C11" si="0">A3-B3</f>
+        <v>7.9365079365080193E-3</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="6">
+        <f xml:space="preserve"> F1/(F2/SQRT(10))</f>
+        <v>1.0458198163026571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="C4" s="6">
+        <f t="shared" si="0"/>
+        <v>0.22222222222222299</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2.262</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>0.92857142857142805</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.88888888888888795</v>
+      </c>
+      <c r="C5" s="6">
+        <f t="shared" si="0"/>
+        <v>3.9682539682540097E-2</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>0.92857142857142805</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" si="0"/>
+        <v>0.15079365079365104</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>0.69230769230769196</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="C7" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.14102564102564108</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="I7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0.85714285714285676</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0.8166666666666661</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.94444444444444398</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" si="0"/>
+        <v>-2.1367521367520959E-2</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="I8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="10">
+        <v>1.5027707335399635E-2</v>
+      </c>
+      <c r="K8" s="10">
+        <v>4.8353909465020505E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.88888888888888795</v>
+      </c>
+      <c r="C9" s="6">
+        <f t="shared" si="0"/>
+        <v>-4.2735042735041917E-2</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="I9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="10">
+        <v>10</v>
+      </c>
+      <c r="K9" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>0.61538461538461497</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.72222222222222199</v>
+      </c>
+      <c r="C10" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.10683760683760701</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="I10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="10">
+        <v>0.28647315633565174</v>
+      </c>
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="C11" s="6">
+        <f t="shared" si="0"/>
+        <v>0.145299145299146</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="I11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="10">
+        <v>0</v>
+      </c>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="10">
+        <v>9</v>
+      </c>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="10">
+        <v>1.0458198163026571</v>
+      </c>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="10">
+        <v>0.16145918080989122</v>
+      </c>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="10">
+        <v>1.8331129326562374</v>
+      </c>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="10">
+        <v>0.32291836161978243</v>
+      </c>
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="I17" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="11">
+        <v>2.2621571627982053</v>
+      </c>
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A20:F20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>